--- a/biology/Botanique/Liste_noire_des_espèces_envahissantes_en_Suisse/Liste_noire_des_espèces_envahissantes_en_Suisse.xlsx
+++ b/biology/Botanique/Liste_noire_des_espèces_envahissantes_en_Suisse/Liste_noire_des_espèces_envahissantes_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_noire_des_esp%C3%A8ces_envahissantes_en_Suisse</t>
+          <t>Liste_noire_des_espèces_envahissantes_en_Suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste noire des espèces envahissantes en Suisse est une liste établie au niveau national et régional ayant pour but d'évaluer le niveau de dangerosité que représentent les espèces invasives pour la richesse biologique, l'écologie et l'économie du pays. Cette liste est réalisée et publiée par la fondation Infoflora en 2014. 
-L'office fédéral de l'environnement est l'office chargé du dossier[1].
+L'office fédéral de l'environnement est l'office chargé du dossier.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_noire_des_esp%C3%A8ces_envahissantes_en_Suisse</t>
+          <t>Liste_noire_des_espèces_envahissantes_en_Suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Espèces végétales envahissantes en Suisse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abutilon theophrasti
 Ailanthus altissima
